--- a/data/raw/election/voters-age-sex-education/2023/Niğde.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Niğde.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-16:54:47-20443946806" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="35">
   <si>
     <t>Niğde</t>
   </si>
@@ -119,6 +118,12 @@
   </si>
   <si>
     <t>Ulukışla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -652,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -672,10 +677,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1000,10 +1014,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161:A162"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,24 +1033,24 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2070,17 +2084,17 @@
       <c r="D30" s="5">
         <v>577</v>
       </c>
-      <c r="E30" s="5">
-        <v>2.6110000000000002</v>
+      <c r="E30" s="7">
+        <v>2611</v>
       </c>
       <c r="F30" s="5">
         <v>821</v>
       </c>
-      <c r="G30" s="5">
-        <v>1.95</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1.419</v>
+      <c r="G30" s="7">
+        <v>1950</v>
+      </c>
+      <c r="H30" s="7">
+        <v>1419</v>
       </c>
       <c r="I30" s="5">
         <v>468</v>
@@ -2094,8 +2108,8 @@
       <c r="L30" s="5">
         <v>91</v>
       </c>
-      <c r="M30" s="5">
-        <v>8.6110000000000007</v>
+      <c r="M30" s="7">
+        <v>8611</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -2159,8 +2173,8 @@
       <c r="G32" s="4">
         <v>800</v>
       </c>
-      <c r="H32" s="4">
-        <v>1.9339999999999999</v>
+      <c r="H32" s="9">
+        <v>1934</v>
       </c>
       <c r="I32" s="4">
         <v>384</v>
@@ -2174,8 +2188,8 @@
       <c r="L32" s="4">
         <v>14</v>
       </c>
-      <c r="M32" s="5">
-        <v>3.1579999999999999</v>
+      <c r="M32" s="7">
+        <v>3158</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2198,8 +2212,8 @@
       <c r="G33" s="4">
         <v>655</v>
       </c>
-      <c r="H33" s="4">
-        <v>1.9339999999999999</v>
+      <c r="H33" s="9">
+        <v>1934</v>
       </c>
       <c r="I33" s="4">
         <v>550</v>
@@ -2213,8 +2227,8 @@
       <c r="L33" s="4">
         <v>2</v>
       </c>
-      <c r="M33" s="5">
-        <v>3.1709999999999998</v>
+      <c r="M33" s="7">
+        <v>3171</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2254,8 +2268,8 @@
       <c r="L34" s="4">
         <v>4</v>
       </c>
-      <c r="M34" s="5">
-        <v>1.9330000000000001</v>
+      <c r="M34" s="7">
+        <v>1933</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2293,8 +2307,8 @@
       <c r="L35" s="4">
         <v>3</v>
       </c>
-      <c r="M35" s="5">
-        <v>1.9379999999999999</v>
+      <c r="M35" s="7">
+        <v>1938</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2334,8 +2348,8 @@
       <c r="L36" s="4">
         <v>4</v>
       </c>
-      <c r="M36" s="5">
-        <v>1.8320000000000001</v>
+      <c r="M36" s="7">
+        <v>1832</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2373,8 +2387,8 @@
       <c r="L37" s="4">
         <v>5</v>
       </c>
-      <c r="M37" s="5">
-        <v>1.7629999999999999</v>
+      <c r="M37" s="7">
+        <v>1763</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2414,8 +2428,8 @@
       <c r="L38" s="4">
         <v>8</v>
       </c>
-      <c r="M38" s="5">
-        <v>1.897</v>
+      <c r="M38" s="7">
+        <v>1897</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2453,8 +2467,8 @@
       <c r="L39" s="4">
         <v>8</v>
       </c>
-      <c r="M39" s="5">
-        <v>1.9139999999999999</v>
+      <c r="M39" s="7">
+        <v>1914</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2494,8 +2508,8 @@
       <c r="L40" s="4">
         <v>4</v>
       </c>
-      <c r="M40" s="5">
-        <v>2.0550000000000002</v>
+      <c r="M40" s="7">
+        <v>2055</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2533,8 +2547,8 @@
       <c r="L41" s="4">
         <v>6</v>
       </c>
-      <c r="M41" s="5">
-        <v>2.0819999999999999</v>
+      <c r="M41" s="7">
+        <v>2082</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2574,8 +2588,8 @@
       <c r="L42" s="4">
         <v>6</v>
       </c>
-      <c r="M42" s="5">
-        <v>1.964</v>
+      <c r="M42" s="7">
+        <v>1964</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2613,8 +2627,8 @@
       <c r="L43" s="4">
         <v>8</v>
       </c>
-      <c r="M43" s="5">
-        <v>1.954</v>
+      <c r="M43" s="7">
+        <v>1954</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2654,8 +2668,8 @@
       <c r="L44" s="4">
         <v>9</v>
       </c>
-      <c r="M44" s="5">
-        <v>1.952</v>
+      <c r="M44" s="7">
+        <v>1952</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2693,8 +2707,8 @@
       <c r="L45" s="4">
         <v>9</v>
       </c>
-      <c r="M45" s="5">
-        <v>2.0059999999999998</v>
+      <c r="M45" s="7">
+        <v>2006</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2734,8 +2748,8 @@
       <c r="L46" s="4">
         <v>12</v>
       </c>
-      <c r="M46" s="5">
-        <v>1.859</v>
+      <c r="M46" s="7">
+        <v>1859</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2773,8 +2787,8 @@
       <c r="L47" s="4">
         <v>8</v>
       </c>
-      <c r="M47" s="5">
-        <v>1.9370000000000001</v>
+      <c r="M47" s="7">
+        <v>1937</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2814,8 +2828,8 @@
       <c r="L48" s="4">
         <v>9</v>
       </c>
-      <c r="M48" s="5">
-        <v>1.734</v>
+      <c r="M48" s="7">
+        <v>1734</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2829,8 +2843,8 @@
       <c r="D49" s="4">
         <v>101</v>
       </c>
-      <c r="E49" s="4">
-        <v>1.004</v>
+      <c r="E49" s="9">
+        <v>1004</v>
       </c>
       <c r="F49" s="4">
         <v>125</v>
@@ -2853,8 +2867,8 @@
       <c r="L49" s="4">
         <v>7</v>
       </c>
-      <c r="M49" s="5">
-        <v>1.819</v>
+      <c r="M49" s="7">
+        <v>1819</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2894,8 +2908,8 @@
       <c r="L50" s="4">
         <v>9</v>
       </c>
-      <c r="M50" s="5">
-        <v>1.377</v>
+      <c r="M50" s="7">
+        <v>1377</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2933,8 +2947,8 @@
       <c r="L51" s="4">
         <v>5</v>
       </c>
-      <c r="M51" s="5">
-        <v>1.506</v>
+      <c r="M51" s="7">
+        <v>1506</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -3013,8 +3027,8 @@
       <c r="L53" s="4">
         <v>11</v>
       </c>
-      <c r="M53" s="5">
-        <v>1.139</v>
+      <c r="M53" s="7">
+        <v>1139</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3054,8 +3068,8 @@
       <c r="L54" s="4">
         <v>13</v>
       </c>
-      <c r="M54" s="5">
-        <v>1.369</v>
+      <c r="M54" s="7">
+        <v>1369</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3093,8 +3107,8 @@
       <c r="L55" s="4">
         <v>14</v>
       </c>
-      <c r="M55" s="5">
-        <v>2.1440000000000001</v>
+      <c r="M55" s="7">
+        <v>2144</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -3102,26 +3116,26 @@
         <v>12</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>1.256</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1.37</v>
-      </c>
-      <c r="E56" s="5">
-        <v>10.106999999999999</v>
-      </c>
-      <c r="F56" s="5">
-        <v>5.3760000000000003</v>
-      </c>
-      <c r="G56" s="5">
-        <v>7.2519999999999998</v>
-      </c>
-      <c r="H56" s="5">
-        <v>12.361000000000001</v>
-      </c>
-      <c r="I56" s="5">
-        <v>6.8460000000000001</v>
+      <c r="C56" s="7">
+        <v>1256</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1370</v>
+      </c>
+      <c r="E56" s="7">
+        <v>10107</v>
+      </c>
+      <c r="F56" s="7">
+        <v>5376</v>
+      </c>
+      <c r="G56" s="7">
+        <v>7252</v>
+      </c>
+      <c r="H56" s="7">
+        <v>12361</v>
+      </c>
+      <c r="I56" s="7">
+        <v>6846</v>
       </c>
       <c r="J56" s="5">
         <v>573</v>
@@ -3132,8 +3146,8 @@
       <c r="L56" s="5">
         <v>187</v>
       </c>
-      <c r="M56" s="5">
-        <v>45.417999999999999</v>
+      <c r="M56" s="7">
+        <v>45418</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4146,17 +4160,17 @@
       <c r="D82" s="5">
         <v>450</v>
       </c>
-      <c r="E82" s="5">
-        <v>3.1850000000000001</v>
+      <c r="E82" s="7">
+        <v>3185</v>
       </c>
       <c r="F82" s="5">
         <v>933</v>
       </c>
-      <c r="G82" s="5">
-        <v>1.409</v>
-      </c>
-      <c r="H82" s="5">
-        <v>1.7909999999999999</v>
+      <c r="G82" s="7">
+        <v>1409</v>
+      </c>
+      <c r="H82" s="7">
+        <v>1791</v>
       </c>
       <c r="I82" s="5">
         <v>827</v>
@@ -4170,8 +4184,8 @@
       <c r="L82" s="5">
         <v>34</v>
       </c>
-      <c r="M82" s="5">
-        <v>9.2520000000000007</v>
+      <c r="M82" s="7">
+        <v>9252</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -4250,8 +4264,8 @@
       <c r="L84" s="4">
         <v>25</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.7050000000000001</v>
+      <c r="M84" s="7">
+        <v>1705</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4289,8 +4303,8 @@
       <c r="L85" s="4">
         <v>3</v>
       </c>
-      <c r="M85" s="5">
-        <v>1.524</v>
+      <c r="M85" s="7">
+        <v>1524</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4330,8 +4344,8 @@
       <c r="L86" s="4">
         <v>1</v>
       </c>
-      <c r="M86" s="5">
-        <v>1.0429999999999999</v>
+      <c r="M86" s="7">
+        <v>1043</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -5184,17 +5198,17 @@
       <c r="D108" s="5">
         <v>938</v>
       </c>
-      <c r="E108" s="5">
-        <v>5.0259999999999998</v>
-      </c>
-      <c r="F108" s="5">
-        <v>2.2189999999999999</v>
-      </c>
-      <c r="G108" s="5">
-        <v>4.24</v>
-      </c>
-      <c r="H108" s="5">
-        <v>3.0680000000000001</v>
+      <c r="E108" s="7">
+        <v>5026</v>
+      </c>
+      <c r="F108" s="7">
+        <v>2219</v>
+      </c>
+      <c r="G108" s="7">
+        <v>4240</v>
+      </c>
+      <c r="H108" s="7">
+        <v>3068</v>
       </c>
       <c r="I108" s="5">
         <v>921</v>
@@ -5208,8 +5222,8 @@
       <c r="L108" s="5">
         <v>90</v>
       </c>
-      <c r="M108" s="5">
-        <v>17.318999999999999</v>
+      <c r="M108" s="7">
+        <v>17319</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -5270,14 +5284,14 @@
       <c r="F110" s="4">
         <v>2</v>
       </c>
-      <c r="G110" s="4">
-        <v>3.831</v>
-      </c>
-      <c r="H110" s="4">
-        <v>7.2629999999999999</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1.25</v>
+      <c r="G110" s="9">
+        <v>3831</v>
+      </c>
+      <c r="H110" s="9">
+        <v>7263</v>
+      </c>
+      <c r="I110" s="9">
+        <v>1250</v>
       </c>
       <c r="J110" s="4">
         <v>14</v>
@@ -5288,8 +5302,8 @@
       <c r="L110" s="4">
         <v>86</v>
       </c>
-      <c r="M110" s="5">
-        <v>12.532999999999999</v>
+      <c r="M110" s="7">
+        <v>12533</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5309,14 +5323,14 @@
       <c r="F111" s="4">
         <v>1</v>
       </c>
-      <c r="G111" s="4">
-        <v>2.87</v>
-      </c>
-      <c r="H111" s="4">
-        <v>7.5179999999999998</v>
-      </c>
-      <c r="I111" s="4">
-        <v>2.1259999999999999</v>
+      <c r="G111" s="9">
+        <v>2870</v>
+      </c>
+      <c r="H111" s="9">
+        <v>7518</v>
+      </c>
+      <c r="I111" s="9">
+        <v>2126</v>
       </c>
       <c r="J111" s="4">
         <v>11</v>
@@ -5327,8 +5341,8 @@
       <c r="L111" s="4">
         <v>20</v>
       </c>
-      <c r="M111" s="5">
-        <v>12.634</v>
+      <c r="M111" s="7">
+        <v>12634</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5350,14 +5364,14 @@
       <c r="F112" s="4">
         <v>59</v>
       </c>
-      <c r="G112" s="4">
-        <v>2.472</v>
-      </c>
-      <c r="H112" s="4">
-        <v>2.5070000000000001</v>
-      </c>
-      <c r="I112" s="4">
-        <v>2.4169999999999998</v>
+      <c r="G112" s="9">
+        <v>2472</v>
+      </c>
+      <c r="H112" s="9">
+        <v>2507</v>
+      </c>
+      <c r="I112" s="9">
+        <v>2417</v>
       </c>
       <c r="J112" s="4">
         <v>239</v>
@@ -5368,8 +5382,8 @@
       <c r="L112" s="4">
         <v>25</v>
       </c>
-      <c r="M112" s="5">
-        <v>7.8120000000000003</v>
+      <c r="M112" s="7">
+        <v>7812</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5389,14 +5403,14 @@
       <c r="F113" s="4">
         <v>102</v>
       </c>
-      <c r="G113" s="4">
-        <v>2.3359999999999999</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1.76</v>
-      </c>
-      <c r="I113" s="4">
-        <v>3.4609999999999999</v>
+      <c r="G113" s="9">
+        <v>2336</v>
+      </c>
+      <c r="H113" s="9">
+        <v>1760</v>
+      </c>
+      <c r="I113" s="9">
+        <v>3461</v>
       </c>
       <c r="J113" s="4">
         <v>347</v>
@@ -5407,8 +5421,8 @@
       <c r="L113" s="4">
         <v>26</v>
       </c>
-      <c r="M113" s="5">
-        <v>8.3510000000000009</v>
+      <c r="M113" s="7">
+        <v>8351</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5427,17 +5441,17 @@
       <c r="E114" s="4">
         <v>63</v>
       </c>
-      <c r="F114" s="4">
-        <v>1.651</v>
-      </c>
-      <c r="G114" s="4">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="H114" s="4">
-        <v>2.206</v>
-      </c>
-      <c r="I114" s="4">
-        <v>2.125</v>
+      <c r="F114" s="9">
+        <v>1651</v>
+      </c>
+      <c r="G114" s="9">
+        <v>1049</v>
+      </c>
+      <c r="H114" s="9">
+        <v>2206</v>
+      </c>
+      <c r="I114" s="9">
+        <v>2125</v>
       </c>
       <c r="J114" s="4">
         <v>384</v>
@@ -5448,8 +5462,8 @@
       <c r="L114" s="4">
         <v>24</v>
       </c>
-      <c r="M114" s="5">
-        <v>7.5949999999999998</v>
+      <c r="M114" s="7">
+        <v>7595</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5466,17 +5480,17 @@
       <c r="E115" s="4">
         <v>196</v>
       </c>
-      <c r="F115" s="4">
-        <v>2.1989999999999998</v>
+      <c r="F115" s="9">
+        <v>2199</v>
       </c>
       <c r="G115" s="4">
         <v>799</v>
       </c>
-      <c r="H115" s="4">
-        <v>1.651</v>
-      </c>
-      <c r="I115" s="4">
-        <v>2.536</v>
+      <c r="H115" s="9">
+        <v>1651</v>
+      </c>
+      <c r="I115" s="9">
+        <v>2536</v>
       </c>
       <c r="J115" s="4">
         <v>431</v>
@@ -5487,8 +5501,8 @@
       <c r="L115" s="4">
         <v>38</v>
       </c>
-      <c r="M115" s="5">
-        <v>8.0449999999999999</v>
+      <c r="M115" s="7">
+        <v>8045</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5507,17 +5521,17 @@
       <c r="E116" s="4">
         <v>720</v>
       </c>
-      <c r="F116" s="4">
-        <v>1.77</v>
+      <c r="F116" s="9">
+        <v>1770</v>
       </c>
       <c r="G116" s="4">
         <v>946</v>
       </c>
-      <c r="H116" s="4">
-        <v>2.202</v>
-      </c>
-      <c r="I116" s="4">
-        <v>1.9350000000000001</v>
+      <c r="H116" s="9">
+        <v>2202</v>
+      </c>
+      <c r="I116" s="9">
+        <v>1935</v>
       </c>
       <c r="J116" s="4">
         <v>450</v>
@@ -5528,8 +5542,8 @@
       <c r="L116" s="4">
         <v>25</v>
       </c>
-      <c r="M116" s="5">
-        <v>8.1929999999999996</v>
+      <c r="M116" s="7">
+        <v>8193</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5543,20 +5557,20 @@
       <c r="D117" s="4">
         <v>80</v>
       </c>
-      <c r="E117" s="4">
-        <v>1.875</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1.4510000000000001</v>
+      <c r="E117" s="9">
+        <v>1875</v>
+      </c>
+      <c r="F117" s="9">
+        <v>1451</v>
       </c>
       <c r="G117" s="4">
         <v>791</v>
       </c>
-      <c r="H117" s="4">
-        <v>1.748</v>
-      </c>
-      <c r="I117" s="4">
-        <v>1.819</v>
+      <c r="H117" s="9">
+        <v>1748</v>
+      </c>
+      <c r="I117" s="9">
+        <v>1819</v>
       </c>
       <c r="J117" s="4">
         <v>319</v>
@@ -5567,8 +5581,8 @@
       <c r="L117" s="4">
         <v>30</v>
       </c>
-      <c r="M117" s="5">
-        <v>8.2129999999999992</v>
+      <c r="M117" s="7">
+        <v>8213</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5584,20 +5598,20 @@
       <c r="D118" s="4">
         <v>21</v>
       </c>
-      <c r="E118" s="4">
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="F118" s="4">
-        <v>1.4279999999999999</v>
-      </c>
-      <c r="G118" s="4">
-        <v>1.407</v>
-      </c>
-      <c r="H118" s="4">
-        <v>2.339</v>
-      </c>
-      <c r="I118" s="4">
-        <v>1.5980000000000001</v>
+      <c r="E118" s="9">
+        <v>1305</v>
+      </c>
+      <c r="F118" s="9">
+        <v>1428</v>
+      </c>
+      <c r="G118" s="9">
+        <v>1407</v>
+      </c>
+      <c r="H118" s="9">
+        <v>2339</v>
+      </c>
+      <c r="I118" s="9">
+        <v>1598</v>
       </c>
       <c r="J118" s="4">
         <v>425</v>
@@ -5608,8 +5622,8 @@
       <c r="L118" s="4">
         <v>26</v>
       </c>
-      <c r="M118" s="5">
-        <v>8.6709999999999994</v>
+      <c r="M118" s="7">
+        <v>8671</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5623,20 +5637,20 @@
       <c r="D119" s="4">
         <v>104</v>
       </c>
-      <c r="E119" s="4">
-        <v>2.6309999999999998</v>
+      <c r="E119" s="9">
+        <v>2631</v>
       </c>
       <c r="F119" s="4">
         <v>972</v>
       </c>
-      <c r="G119" s="4">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="H119" s="4">
-        <v>1.7390000000000001</v>
-      </c>
-      <c r="I119" s="4">
-        <v>1.4990000000000001</v>
+      <c r="G119" s="9">
+        <v>1215</v>
+      </c>
+      <c r="H119" s="9">
+        <v>1739</v>
+      </c>
+      <c r="I119" s="9">
+        <v>1499</v>
       </c>
       <c r="J119" s="4">
         <v>306</v>
@@ -5647,8 +5661,8 @@
       <c r="L119" s="4">
         <v>24</v>
       </c>
-      <c r="M119" s="5">
-        <v>8.6359999999999992</v>
+      <c r="M119" s="7">
+        <v>8636</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5664,20 +5678,20 @@
       <c r="D120" s="4">
         <v>15</v>
       </c>
-      <c r="E120" s="4">
-        <v>1.431</v>
-      </c>
-      <c r="F120" s="4">
-        <v>1.361</v>
-      </c>
-      <c r="G120" s="4">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="H120" s="4">
-        <v>1.8109999999999999</v>
-      </c>
-      <c r="I120" s="4">
-        <v>1.4159999999999999</v>
+      <c r="E120" s="9">
+        <v>1431</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1361</v>
+      </c>
+      <c r="G120" s="9">
+        <v>1118</v>
+      </c>
+      <c r="H120" s="9">
+        <v>1811</v>
+      </c>
+      <c r="I120" s="9">
+        <v>1416</v>
       </c>
       <c r="J120" s="4">
         <v>291</v>
@@ -5688,8 +5702,8 @@
       <c r="L120" s="4">
         <v>27</v>
       </c>
-      <c r="M120" s="5">
-        <v>7.5720000000000001</v>
+      <c r="M120" s="7">
+        <v>7572</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5703,20 +5717,20 @@
       <c r="D121" s="4">
         <v>124</v>
       </c>
-      <c r="E121" s="4">
-        <v>2.8330000000000002</v>
+      <c r="E121" s="9">
+        <v>2833</v>
       </c>
       <c r="F121" s="4">
         <v>921</v>
       </c>
-      <c r="G121" s="4">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="H121" s="4">
-        <v>1.298</v>
-      </c>
-      <c r="I121" s="4">
-        <v>1.03</v>
+      <c r="G121" s="9">
+        <v>1078</v>
+      </c>
+      <c r="H121" s="9">
+        <v>1298</v>
+      </c>
+      <c r="I121" s="9">
+        <v>1030</v>
       </c>
       <c r="J121" s="4">
         <v>126</v>
@@ -5727,8 +5741,8 @@
       <c r="L121" s="4">
         <v>24</v>
       </c>
-      <c r="M121" s="5">
-        <v>7.5650000000000004</v>
+      <c r="M121" s="7">
+        <v>7565</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5744,20 +5758,20 @@
       <c r="D122" s="4">
         <v>17</v>
       </c>
-      <c r="E122" s="4">
-        <v>1.534</v>
-      </c>
-      <c r="F122" s="4">
-        <v>1.3740000000000001</v>
-      </c>
-      <c r="G122" s="4">
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="H122" s="4">
-        <v>1.3620000000000001</v>
-      </c>
-      <c r="I122" s="4">
-        <v>1.167</v>
+      <c r="E122" s="9">
+        <v>1534</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1374</v>
+      </c>
+      <c r="G122" s="9">
+        <v>1245</v>
+      </c>
+      <c r="H122" s="9">
+        <v>1362</v>
+      </c>
+      <c r="I122" s="9">
+        <v>1167</v>
       </c>
       <c r="J122" s="4">
         <v>141</v>
@@ -5768,8 +5782,8 @@
       <c r="L122" s="4">
         <v>31</v>
       </c>
-      <c r="M122" s="5">
-        <v>6.9820000000000002</v>
+      <c r="M122" s="7">
+        <v>6982</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5783,8 +5797,8 @@
       <c r="D123" s="4">
         <v>265</v>
       </c>
-      <c r="E123" s="4">
-        <v>3.0819999999999999</v>
+      <c r="E123" s="9">
+        <v>3082</v>
       </c>
       <c r="F123" s="4">
         <v>853</v>
@@ -5807,8 +5821,8 @@
       <c r="L123" s="4">
         <v>39</v>
       </c>
-      <c r="M123" s="5">
-        <v>6.9610000000000003</v>
+      <c r="M123" s="7">
+        <v>6961</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5824,17 +5838,17 @@
       <c r="D124" s="4">
         <v>37</v>
       </c>
-      <c r="E124" s="4">
-        <v>1.861</v>
-      </c>
-      <c r="F124" s="4">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="G124" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H124" s="4">
-        <v>1.0740000000000001</v>
+      <c r="E124" s="9">
+        <v>1861</v>
+      </c>
+      <c r="F124" s="9">
+        <v>1031</v>
+      </c>
+      <c r="G124" s="9">
+        <v>1100</v>
+      </c>
+      <c r="H124" s="9">
+        <v>1074</v>
       </c>
       <c r="I124" s="4">
         <v>755</v>
@@ -5848,8 +5862,8 @@
       <c r="L124" s="4">
         <v>45</v>
       </c>
-      <c r="M124" s="5">
-        <v>6.0350000000000001</v>
+      <c r="M124" s="7">
+        <v>6035</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5863,8 +5877,8 @@
       <c r="D125" s="4">
         <v>335</v>
       </c>
-      <c r="E125" s="4">
-        <v>3.0830000000000002</v>
+      <c r="E125" s="9">
+        <v>3083</v>
       </c>
       <c r="F125" s="4">
         <v>535</v>
@@ -5887,8 +5901,8 @@
       <c r="L125" s="4">
         <v>29</v>
       </c>
-      <c r="M125" s="5">
-        <v>5.9660000000000002</v>
+      <c r="M125" s="7">
+        <v>5966</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5904,8 +5918,8 @@
       <c r="D126" s="4">
         <v>50</v>
       </c>
-      <c r="E126" s="4">
-        <v>1.964</v>
+      <c r="E126" s="9">
+        <v>1964</v>
       </c>
       <c r="F126" s="4">
         <v>509</v>
@@ -5928,8 +5942,8 @@
       <c r="L126" s="4">
         <v>27</v>
       </c>
-      <c r="M126" s="5">
-        <v>4.7480000000000002</v>
+      <c r="M126" s="7">
+        <v>4748</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5943,8 +5957,8 @@
       <c r="D127" s="4">
         <v>409</v>
       </c>
-      <c r="E127" s="4">
-        <v>2.7909999999999999</v>
+      <c r="E127" s="9">
+        <v>2791</v>
       </c>
       <c r="F127" s="4">
         <v>211</v>
@@ -5967,8 +5981,8 @@
       <c r="L127" s="4">
         <v>26</v>
       </c>
-      <c r="M127" s="5">
-        <v>4.9020000000000001</v>
+      <c r="M127" s="7">
+        <v>4902</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5984,8 +5998,8 @@
       <c r="D128" s="4">
         <v>68</v>
       </c>
-      <c r="E128" s="4">
-        <v>1.7330000000000001</v>
+      <c r="E128" s="9">
+        <v>1733</v>
       </c>
       <c r="F128" s="4">
         <v>227</v>
@@ -6008,8 +6022,8 @@
       <c r="L128" s="4">
         <v>17</v>
       </c>
-      <c r="M128" s="5">
-        <v>3.38</v>
+      <c r="M128" s="7">
+        <v>3380</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6023,8 +6037,8 @@
       <c r="D129" s="4">
         <v>480</v>
       </c>
-      <c r="E129" s="4">
-        <v>2.1110000000000002</v>
+      <c r="E129" s="9">
+        <v>2111</v>
       </c>
       <c r="F129" s="4">
         <v>77</v>
@@ -6047,8 +6061,8 @@
       <c r="L129" s="4">
         <v>17</v>
       </c>
-      <c r="M129" s="5">
-        <v>3.8239999999999998</v>
+      <c r="M129" s="7">
+        <v>3824</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6064,8 +6078,8 @@
       <c r="D130" s="4">
         <v>88</v>
       </c>
-      <c r="E130" s="4">
-        <v>1.577</v>
+      <c r="E130" s="9">
+        <v>1577</v>
       </c>
       <c r="F130" s="4">
         <v>72</v>
@@ -6088,8 +6102,8 @@
       <c r="L130" s="4">
         <v>14</v>
       </c>
-      <c r="M130" s="5">
-        <v>2.593</v>
+      <c r="M130" s="7">
+        <v>2593</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6103,8 +6117,8 @@
       <c r="D131" s="4">
         <v>496</v>
       </c>
-      <c r="E131" s="4">
-        <v>1.4019999999999999</v>
+      <c r="E131" s="9">
+        <v>1402</v>
       </c>
       <c r="F131" s="4">
         <v>18</v>
@@ -6127,8 +6141,8 @@
       <c r="L131" s="4">
         <v>14</v>
       </c>
-      <c r="M131" s="5">
-        <v>2.9390000000000001</v>
+      <c r="M131" s="7">
+        <v>2939</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6144,8 +6158,8 @@
       <c r="D132" s="4">
         <v>306</v>
       </c>
-      <c r="E132" s="4">
-        <v>1.8460000000000001</v>
+      <c r="E132" s="9">
+        <v>1846</v>
       </c>
       <c r="F132" s="4">
         <v>34</v>
@@ -6168,8 +6182,8 @@
       <c r="L132" s="4">
         <v>24</v>
       </c>
-      <c r="M132" s="5">
-        <v>2.891</v>
+      <c r="M132" s="7">
+        <v>2891</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6177,14 +6191,14 @@
       <c r="B133" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C133" s="4">
-        <v>1.8149999999999999</v>
+      <c r="C133" s="9">
+        <v>1815</v>
       </c>
       <c r="D133" s="4">
         <v>782</v>
       </c>
-      <c r="E133" s="4">
-        <v>1.5</v>
+      <c r="E133" s="9">
+        <v>1500</v>
       </c>
       <c r="F133" s="4">
         <v>6</v>
@@ -6207,8 +6221,8 @@
       <c r="L133" s="4">
         <v>32</v>
       </c>
-      <c r="M133" s="5">
-        <v>4.3769999999999998</v>
+      <c r="M133" s="7">
+        <v>4377</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6216,29 +6230,29 @@
         <v>12</v>
       </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>4.16</v>
-      </c>
-      <c r="D134" s="5">
-        <v>4.09</v>
-      </c>
-      <c r="E134" s="5">
-        <v>35.923000000000002</v>
-      </c>
-      <c r="F134" s="5">
-        <v>16.864000000000001</v>
-      </c>
-      <c r="G134" s="5">
-        <v>25.943999999999999</v>
-      </c>
-      <c r="H134" s="5">
-        <v>40.963000000000001</v>
-      </c>
-      <c r="I134" s="5">
-        <v>28.225999999999999</v>
-      </c>
-      <c r="J134" s="5">
-        <v>3.7410000000000001</v>
+      <c r="C134" s="7">
+        <v>4160</v>
+      </c>
+      <c r="D134" s="7">
+        <v>4090</v>
+      </c>
+      <c r="E134" s="7">
+        <v>35923</v>
+      </c>
+      <c r="F134" s="7">
+        <v>16864</v>
+      </c>
+      <c r="G134" s="7">
+        <v>25944</v>
+      </c>
+      <c r="H134" s="7">
+        <v>40963</v>
+      </c>
+      <c r="I134" s="7">
+        <v>28226</v>
+      </c>
+      <c r="J134" s="7">
+        <v>3741</v>
       </c>
       <c r="K134" s="5">
         <v>817</v>
@@ -6246,8 +6260,8 @@
       <c r="L134" s="5">
         <v>690</v>
       </c>
-      <c r="M134" s="5">
-        <v>161.41800000000001</v>
+      <c r="M134" s="7">
+        <v>161418</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
@@ -7245,8 +7259,8 @@
       <c r="L159" s="4">
         <v>8</v>
       </c>
-      <c r="M159" s="5">
-        <v>1.0629999999999999</v>
+      <c r="M159" s="7">
+        <v>1063</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7260,20 +7274,20 @@
       <c r="D160" s="5">
         <v>714</v>
       </c>
-      <c r="E160" s="5">
-        <v>5.3719999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>1.34</v>
-      </c>
-      <c r="G160" s="5">
-        <v>2.2469999999999999</v>
-      </c>
-      <c r="H160" s="5">
-        <v>3.9209999999999998</v>
-      </c>
-      <c r="I160" s="5">
-        <v>1.77</v>
+      <c r="E160" s="7">
+        <v>5372</v>
+      </c>
+      <c r="F160" s="7">
+        <v>1340</v>
+      </c>
+      <c r="G160" s="7">
+        <v>2247</v>
+      </c>
+      <c r="H160" s="7">
+        <v>3921</v>
+      </c>
+      <c r="I160" s="7">
+        <v>1770</v>
       </c>
       <c r="J160" s="5">
         <v>118</v>
@@ -7284,19 +7298,29 @@
       <c r="L160" s="5">
         <v>156</v>
       </c>
-      <c r="M160" s="5">
-        <v>16.084</v>
+      <c r="M160" s="7">
+        <v>16084</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
